--- a/sputnik/personal/uch/uch17.xlsx
+++ b/sputnik/personal/uch/uch17.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -24,9 +24,6 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Начислен членский взнос 2018/2019 (с 01.05.2018 по 30.04.2019)</t>
   </si>
   <si>
@@ -40,13 +37,19 @@
   </si>
   <si>
     <t>Начислен членский взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +64,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -177,12 +188,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,7 +507,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A7"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -509,9 +522,11 @@
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -524,7 +539,7 @@
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="6">
         <v>9602.0400000000009</v>
@@ -536,7 +551,7 @@
         <v>43450</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6">
@@ -548,7 +563,7 @@
         <v>43450</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="6">
         <v>729.76</v>
@@ -560,7 +575,7 @@
         <v>43450</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6">
@@ -572,7 +587,7 @@
         <v>43586</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="7">
         <v>9465.7199999999993</v>
@@ -592,9 +607,6 @@
       <c r="D9" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/uch/uch17.xlsx
+++ b/sputnik/personal/uch/uch17.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Наименование / садовый участок №17</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
@@ -165,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -197,6 +200,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -507,7 +511,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -595,9 +599,15 @@
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="A8" s="13">
+        <v>43952</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="8">
+        <v>10650</v>
+      </c>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">

--- a/sputnik/personal/uch/uch17.xlsx
+++ b/sputnik/personal/uch/uch17.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -511,7 +514,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -611,9 +614,15 @@
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="A9" s="13">
+        <v>44317</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="8">
+        <v>11357.16</v>
+      </c>
       <c r="D9" s="8"/>
     </row>
   </sheetData>

--- a/sputnik/personal/uch/uch17.xlsx
+++ b/sputnik/personal/uch/uch17.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -511,10 +511,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A10" sqref="A10:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -624,6 +624,48 @@
         <v>11357.16</v>
       </c>
       <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>44401</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8">
+        <v>11357.16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch17.xlsx
+++ b/sputnik/personal/uch/uch17.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Оплачено</t>
   </si>
@@ -514,7 +514,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D15"/>
+      <selection activeCell="B11" sqref="B11:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -638,16 +638,28 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="13">
+        <v>44445</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
+      <c r="D11" s="7">
+        <v>9465.7199999999993</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="13">
+        <v>44445</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="D12" s="8">
+        <v>10650</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>

--- a/sputnik/personal/uch/uch17.xlsx
+++ b/sputnik/personal/uch/uch17.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -49,13 +49,16 @@
   </si>
   <si>
     <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Начислены пени за просрочку оплаты </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,8 +82,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -90,6 +100,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -171,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -186,9 +208,6 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -204,6 +223,30 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -511,10 +554,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -528,10 +571,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -542,142 +585,160 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="20">
         <v>9602.0400000000009</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>43450</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20">
         <v>9602.0400000000009</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="A5" s="13">
         <v>43450</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="21">
         <v>729.76</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="21"/>
     </row>
     <row r="6" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="A6" s="13">
         <v>43450</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21">
         <v>729.76</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>43586</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="22">
         <v>9465.7199999999993</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="A8" s="12">
         <v>43952</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="23">
         <v>10650</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="23"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
+      <c r="A9" s="15">
         <v>44317</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="24">
         <v>11357.16</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="15">
         <v>44401</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8">
+      <c r="C10" s="24"/>
+      <c r="D10" s="24">
         <v>11357.16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>44445</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="7">
-        <v>9465.7199999999993</v>
-      </c>
+      <c r="A11" s="18">
+        <v>44443</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="25">
+        <v>10254.1</v>
+      </c>
+      <c r="D11" s="26"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="A12" s="12">
         <v>44445</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8">
+      <c r="C12" s="23"/>
+      <c r="D12" s="22">
+        <v>9465.7199999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>44445</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23">
         <v>10650</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-    </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="A14" s="19">
+        <v>44445</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="25">
+        <v>10254.1</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
